--- a/data/lat_lng.xlsx
+++ b/data/lat_lng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnavy\Documents\NSS\Capstone\geographic_desparities\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191496EA-15DF-4531-991A-368E2CE6DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB45466C-00E2-4FCA-B577-B4951BBD4A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A54A72F8-7598-4C51-8E54-39D47BA3CE25}"/>
   </bookViews>
@@ -703,9 +703,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AB3512-7C84-4689-A923-5BE1A2FE38C4}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -720,1729 +725,1729 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>36.171500000000002</v>
+        <v>35.963900000000002</v>
       </c>
       <c r="C2">
-        <v>-86.784199999999998</v>
+        <v>-84.293800000000005</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>35.108699999999999</v>
+        <v>36.098100000000002</v>
       </c>
       <c r="C3">
-        <v>-89.966300000000004</v>
+        <v>-84.128299999999996</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>35.969200000000001</v>
+        <v>36.039900000000003</v>
       </c>
       <c r="C4">
-        <v>-83.949600000000004</v>
+        <v>-84.328500000000005</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>35.066000000000003</v>
+        <v>36.225000000000001</v>
       </c>
       <c r="C5">
-        <v>-85.248099999999994</v>
+        <v>-84.154799999999994</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>36.569200000000002</v>
+        <v>36.213700000000003</v>
       </c>
       <c r="C6">
-        <v>-87.341300000000004</v>
+        <v>-84.062899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>35.848999999999997</v>
+        <v>36.197000000000003</v>
       </c>
       <c r="C7">
-        <v>-86.412099999999995</v>
+        <v>-84.033000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>36.340600000000002</v>
+        <v>36.177700000000002</v>
       </c>
       <c r="C8">
-        <v>-82.380600000000001</v>
+        <v>-84.183700000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>36.522399999999998</v>
+        <v>35.498699999999999</v>
       </c>
       <c r="C9">
-        <v>-82.545400000000001</v>
+        <v>-86.451700000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>35.92</v>
+        <v>35.611699999999999</v>
       </c>
       <c r="C10">
-        <v>-86.851600000000005</v>
+        <v>-86.573899999999995</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>35.653799999999997</v>
+        <v>35.525300000000001</v>
       </c>
       <c r="C11">
-        <v>-88.835400000000007</v>
+        <v>-86.330100000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>35.181699999999999</v>
+        <v>35.590800000000002</v>
       </c>
       <c r="C12">
-        <v>-84.870699999999999</v>
+        <v>-86.353800000000007</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>35.743699999999997</v>
+        <v>35.452300000000001</v>
       </c>
       <c r="C13">
-        <v>-86.911600000000007</v>
+        <v>-86.258200000000002</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>36.557200000000002</v>
+        <v>36.066299999999998</v>
       </c>
       <c r="C14">
-        <v>-82.215400000000002</v>
+        <v>-88.104699999999994</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B15">
-        <v>36.204300000000003</v>
+        <v>36.232700000000001</v>
       </c>
       <c r="C15">
-        <v>-83.3001</v>
+        <v>-88.084999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B16">
-        <v>36.3063</v>
+        <v>36.0687</v>
       </c>
       <c r="C16">
-        <v>-86.599699999999999</v>
+        <v>-88.008099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B17">
-        <v>35.233699999999999</v>
+        <v>35.872</v>
       </c>
       <c r="C17">
-        <v>-89.819500000000005</v>
+        <v>-88.144900000000007</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B18">
-        <v>35.968699999999998</v>
+        <v>35.602699999999999</v>
       </c>
       <c r="C18">
-        <v>-86.526399999999995</v>
+        <v>-85.198400000000007</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>35.046999999999997</v>
+        <v>35.7468</v>
       </c>
       <c r="C19">
-        <v>-89.698700000000002</v>
+        <v>-83.978899999999996</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>36.3782</v>
+        <v>35.807600000000001</v>
       </c>
       <c r="C20">
-        <v>-86.469800000000006</v>
+        <v>-83.975300000000004</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>35.991799999999998</v>
+        <v>35.788200000000003</v>
       </c>
       <c r="C21">
-        <v>-86.775800000000004</v>
+        <v>-83.936300000000003</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>35.623800000000003</v>
+        <v>35.8247</v>
       </c>
       <c r="C22">
-        <v>-87.048400000000001</v>
+        <v>-84.055199999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>36.204000000000001</v>
+        <v>35.799900000000001</v>
       </c>
       <c r="C23">
-        <v>-86.348100000000002</v>
+        <v>-83.868499999999997</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>36.198999999999998</v>
+        <v>35.756300000000003</v>
       </c>
       <c r="C24">
-        <v>-86.511499999999998</v>
+        <v>-84.131900000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>35.082900000000002</v>
+        <v>35.832799999999999</v>
       </c>
       <c r="C25">
-        <v>-89.782399999999996</v>
+        <v>-83.9358</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>36.020000000000003</v>
+        <v>35.676299999999998</v>
       </c>
       <c r="C26">
-        <v>-86.558599999999998</v>
+        <v>-83.752899999999997</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>36.148200000000003</v>
+        <v>35.731999999999999</v>
       </c>
       <c r="C27">
-        <v>-85.510900000000007</v>
+        <v>-83.806899999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>35.7468</v>
+        <v>35.181699999999999</v>
       </c>
       <c r="C28">
-        <v>-83.978899999999996</v>
+        <v>-84.870699999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>35.963900000000002</v>
+        <v>35.1096</v>
       </c>
       <c r="C29">
-        <v>-84.293800000000005</v>
+        <v>-84.909700000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>35.873100000000001</v>
+        <v>35.089300000000001</v>
       </c>
       <c r="C30">
-        <v>-84.182100000000005</v>
+        <v>-84.851200000000006</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>35.498699999999999</v>
+        <v>35.238799999999998</v>
       </c>
       <c r="C31">
-        <v>-86.451700000000002</v>
+        <v>-84.913899999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>34.997300000000003</v>
+        <v>35.1524</v>
       </c>
       <c r="C32">
-        <v>-85.228499999999997</v>
+        <v>-84.854100000000003</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>35.372100000000003</v>
+        <v>35.286200000000001</v>
       </c>
       <c r="C33">
-        <v>-86.217200000000005</v>
+        <v>-84.761099999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>36.494900000000001</v>
+        <v>35.108800000000002</v>
       </c>
       <c r="C34">
-        <v>-86.871099999999998</v>
+        <v>-84.985299999999995</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <v>35.8872</v>
+        <v>36.3718</v>
       </c>
       <c r="C35">
-        <v>-83.567800000000005</v>
+        <v>-84.125600000000006</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>36.332999999999998</v>
+        <v>36.335099999999997</v>
       </c>
       <c r="C36">
-        <v>-86.702600000000004</v>
+        <v>-84.192800000000005</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>36.063699999999997</v>
+        <v>36.325200000000002</v>
       </c>
       <c r="C37">
-        <v>-87.366500000000002</v>
+        <v>-84.219899999999996</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>36.046500000000002</v>
+        <v>36.565100000000001</v>
       </c>
       <c r="C38">
-        <v>-89.377700000000004</v>
+        <v>-84.135499999999993</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>35.878300000000003</v>
+        <v>36.403799999999997</v>
       </c>
       <c r="C39">
-        <v>-83.766900000000007</v>
+        <v>-84.048000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B40">
-        <v>36.167999999999999</v>
+        <v>35.8247</v>
       </c>
       <c r="C40">
-        <v>-82.819699999999997</v>
+        <v>-86.072299999999998</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B41">
-        <v>35.259399999999999</v>
+        <v>35.951099999999997</v>
       </c>
       <c r="C41">
-        <v>-89.668000000000006</v>
+        <v>-86.096900000000005</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>35.9572</v>
+        <v>36.1372</v>
       </c>
       <c r="C42">
-        <v>-86.671899999999994</v>
+        <v>-88.5077</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B43">
-        <v>36.3367</v>
+        <v>36.005200000000002</v>
       </c>
       <c r="C43">
-        <v>-82.236999999999995</v>
+        <v>-88.418099999999995</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B44">
-        <v>35.457299999999996</v>
+        <v>36.0349</v>
       </c>
       <c r="C44">
-        <v>-84.604500000000002</v>
+        <v>-88.246600000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>35.258499999999998</v>
+        <v>35.974699999999999</v>
       </c>
       <c r="C45">
-        <v>-89.730800000000002</v>
+        <v>-88.668899999999994</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>36.464799999999997</v>
+        <v>36.011000000000003</v>
       </c>
       <c r="C46">
-        <v>-86.666600000000003</v>
+        <v>-88.620599999999996</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B47">
-        <v>35.686399999999999</v>
+        <v>35.8705</v>
       </c>
       <c r="C47">
-        <v>-85.781199999999998</v>
+        <v>-88.393699999999995</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>36.035800000000002</v>
+        <v>36.035499999999999</v>
       </c>
       <c r="C48">
-        <v>-84.029600000000002</v>
+        <v>-88.274000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>36.592100000000002</v>
+        <v>35.9863</v>
       </c>
       <c r="C49">
-        <v>-86.523899999999998</v>
+        <v>-88.58</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>35.257100000000001</v>
+        <v>35.8508</v>
       </c>
       <c r="C50">
-        <v>-85.173900000000003</v>
+        <v>-88.652699999999996</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>35.463000000000001</v>
+        <v>35.843800000000002</v>
       </c>
       <c r="C51">
-        <v>-86.077399999999997</v>
+        <v>-88.337199999999996</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B52">
-        <v>35.451000000000001</v>
+        <v>36.3367</v>
       </c>
       <c r="C52">
-        <v>-86.790099999999995</v>
+        <v>-82.236999999999995</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>35.952599999999997</v>
+        <v>36.296500000000002</v>
       </c>
       <c r="C53">
-        <v>-85.029499999999999</v>
+        <v>-82.310599999999994</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B54">
-        <v>35.111699999999999</v>
+        <v>36.3675</v>
       </c>
       <c r="C54">
-        <v>-85.296199999999999</v>
+        <v>-82.224299999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>35.1877</v>
+        <v>36.397799999999997</v>
       </c>
       <c r="C55">
-        <v>-85.195899999999995</v>
+        <v>-82.1511</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>36.392099999999999</v>
+        <v>36.328899999999997</v>
       </c>
       <c r="C56">
-        <v>-86.156800000000004</v>
+        <v>-82.293999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>35.249699999999997</v>
+        <v>36.304299999999998</v>
       </c>
       <c r="C57">
-        <v>-87.332499999999996</v>
+        <v>-82.194800000000001</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B58">
-        <v>35.807600000000001</v>
+        <v>36.277200000000001</v>
       </c>
       <c r="C58">
-        <v>-83.975300000000004</v>
+        <v>-82.172799999999995</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>35.052599999999998</v>
+        <v>36.186599999999999</v>
       </c>
       <c r="C59">
-        <v>-85.0488</v>
+        <v>-82.070599999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>35.335000000000001</v>
+        <v>36.368699999999997</v>
       </c>
       <c r="C60">
-        <v>-89.899100000000004</v>
+        <v>-82.291899999999998</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>36.426699999999997</v>
+        <v>36.2607</v>
       </c>
       <c r="C61">
-        <v>-89.047399999999996</v>
+        <v>-87.041200000000003</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>36.338500000000003</v>
+        <v>36.389299999999999</v>
       </c>
       <c r="C62">
-        <v>-88.851299999999995</v>
+        <v>-87.045500000000004</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>35.811100000000003</v>
+        <v>36.084200000000003</v>
       </c>
       <c r="C63">
-        <v>-84.281800000000004</v>
+        <v>-87.103899999999996</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B64">
-        <v>36.293300000000002</v>
+        <v>36.103700000000003</v>
       </c>
       <c r="C64">
-        <v>-88.3065</v>
+        <v>-87.0565</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B65">
-        <v>35.423900000000003</v>
+        <v>35.444600000000001</v>
       </c>
       <c r="C65">
-        <v>-89.786100000000005</v>
+        <v>-88.653099999999995</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B66">
-        <v>36.098100000000002</v>
+        <v>35.377600000000001</v>
       </c>
       <c r="C66">
-        <v>-84.128299999999996</v>
+        <v>-88.366</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B67">
-        <v>35.981499999999997</v>
+        <v>35.391100000000002</v>
       </c>
       <c r="C67">
-        <v>-87.129099999999994</v>
+        <v>-88.430300000000003</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B68">
-        <v>35.588999999999999</v>
+        <v>35.469099999999997</v>
       </c>
       <c r="C68">
-        <v>-89.257800000000003</v>
+        <v>-88.514600000000002</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B69">
-        <v>35.189799999999998</v>
+        <v>36.575200000000002</v>
       </c>
       <c r="C69">
-        <v>-86.107500000000002</v>
+        <v>-83.646199999999993</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B70">
-        <v>35.2256</v>
+        <v>36.462499999999999</v>
       </c>
       <c r="C70">
-        <v>-89.537199999999999</v>
+        <v>-83.566900000000004</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>36.081699999999998</v>
+        <v>36.438099999999999</v>
       </c>
       <c r="C71">
-        <v>-83.934399999999997</v>
+        <v>-83.6053</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B72">
-        <v>36.002800000000001</v>
+        <v>36.5974</v>
       </c>
       <c r="C72">
-        <v>-84.871099999999998</v>
+        <v>-83.665800000000004</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B73">
-        <v>35.144799999999996</v>
+        <v>36.546900000000001</v>
       </c>
       <c r="C73">
-        <v>-85.345699999999994</v>
+        <v>-85.504300000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>36.579300000000003</v>
+        <v>35.9617</v>
       </c>
       <c r="C74">
-        <v>-82.509600000000006</v>
+        <v>-83.197599999999994</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B75">
-        <v>35.566000000000003</v>
+        <v>35.795200000000001</v>
       </c>
       <c r="C75">
-        <v>-89.648200000000003</v>
+        <v>-83.245699999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B76">
-        <v>36.120100000000001</v>
+        <v>36.008200000000002</v>
       </c>
       <c r="C76">
-        <v>-83.482900000000001</v>
+        <v>-83.0916</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B77">
-        <v>35.127099999999999</v>
+        <v>35.372100000000003</v>
       </c>
       <c r="C77">
-        <v>-85.145300000000006</v>
+        <v>-86.217200000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B78">
-        <v>35.193300000000001</v>
+        <v>35.463000000000001</v>
       </c>
       <c r="C78">
-        <v>-87.034999999999997</v>
+        <v>-86.077399999999997</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B79">
-        <v>35.912599999999998</v>
+        <v>35.533999999999999</v>
       </c>
       <c r="C79">
-        <v>-88.755399999999995</v>
+        <v>-86.083200000000005</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B80">
-        <v>35.661799999999999</v>
+        <v>35.648099999999999</v>
       </c>
       <c r="C80">
-        <v>-88.394400000000005</v>
+        <v>-86.1357</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B81">
-        <v>35.810600000000001</v>
+        <v>35.408499999999997</v>
       </c>
       <c r="C81">
-        <v>-86.900300000000001</v>
+        <v>-85.963899999999995</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>35.827100000000002</v>
+        <v>35.783000000000001</v>
       </c>
       <c r="C82">
-        <v>-88.905799999999999</v>
+        <v>-89.116799999999998</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>35.1096</v>
+        <v>35.720300000000002</v>
       </c>
       <c r="C83">
-        <v>-84.909700000000001</v>
+        <v>-89.085899999999995</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B84">
-        <v>35.744900000000001</v>
+        <v>35.814500000000002</v>
       </c>
       <c r="C84">
-        <v>-89.535799999999995</v>
+        <v>-89.2239</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B85">
-        <v>36.3718</v>
+        <v>35.9084</v>
       </c>
       <c r="C85">
-        <v>-84.125600000000006</v>
+        <v>-89.241399999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B86">
-        <v>35.220999999999997</v>
+        <v>35.776800000000001</v>
       </c>
       <c r="C86">
-        <v>-88.236000000000004</v>
+        <v>-88.986099999999993</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B87">
-        <v>35.491199999999999</v>
+        <v>35.952599999999997</v>
       </c>
       <c r="C87">
-        <v>-85.012</v>
+        <v>-85.029499999999999</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B88">
-        <v>36.520400000000002</v>
+        <v>36.002800000000001</v>
       </c>
       <c r="C88">
-        <v>-82.715100000000007</v>
+        <v>-84.871099999999998</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B89">
-        <v>35.149000000000001</v>
+        <v>35.870100000000001</v>
       </c>
       <c r="C89">
-        <v>-86.563400000000001</v>
+        <v>-85.061400000000006</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B90">
-        <v>36.424300000000002</v>
+        <v>35.906599999999997</v>
       </c>
       <c r="C90">
-        <v>-86.797499999999999</v>
+        <v>-84.884699999999995</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B91">
-        <v>35.698399999999999</v>
+        <v>35.976700000000001</v>
       </c>
       <c r="C91">
-        <v>-84.264099999999999</v>
+        <v>-85.199600000000004</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B92">
-        <v>35.9617</v>
+        <v>36.058599999999998</v>
       </c>
       <c r="C92">
-        <v>-83.197599999999994</v>
+        <v>-85.030500000000004</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B93">
-        <v>36.234900000000003</v>
+        <v>36.045900000000003</v>
       </c>
       <c r="C93">
-        <v>-86.573300000000003</v>
+        <v>-85.206900000000005</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B94">
-        <v>35.284599999999998</v>
+        <v>36.171500000000002</v>
       </c>
       <c r="C94">
-        <v>-86.358699999999999</v>
+        <v>-86.784199999999998</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B95">
-        <v>35.602899999999998</v>
+        <v>36.065199999999997</v>
       </c>
       <c r="C95">
-        <v>-84.471599999999995</v>
+        <v>-86.840299999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B96">
-        <v>35.443399999999997</v>
+        <v>36.073500000000003</v>
       </c>
       <c r="C96">
-        <v>-89.814700000000002</v>
+        <v>-86.785600000000002</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B97">
-        <v>35.444600000000001</v>
+        <v>36.099400000000003</v>
       </c>
       <c r="C97">
-        <v>-88.653099999999995</v>
+        <v>-86.856200000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B98">
-        <v>35.797699999999999</v>
+        <v>36.119599999999998</v>
       </c>
       <c r="C98">
-        <v>-83.562299999999993</v>
+        <v>-86.767300000000006</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B99">
-        <v>35.741399999999999</v>
+        <v>35.651299999999999</v>
       </c>
       <c r="C99">
-        <v>-84.370099999999994</v>
+        <v>-88.123099999999994</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B100">
-        <v>36.295900000000003</v>
+        <v>35.581899999999997</v>
       </c>
       <c r="C100">
-        <v>-82.476600000000005</v>
+        <v>-88.119500000000002</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B101">
-        <v>35.871299999999998</v>
+        <v>35.958399999999997</v>
       </c>
       <c r="C101">
-        <v>-84.495900000000006</v>
+        <v>-85.821100000000001</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B102">
-        <v>35.930700000000002</v>
+        <v>36.079099999999997</v>
       </c>
       <c r="C102">
-        <v>-84.560199999999995</v>
+        <v>-86.038200000000003</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B103">
-        <v>36.145600000000002</v>
+        <v>36.012500000000003</v>
       </c>
       <c r="C103">
-        <v>-82.411500000000004</v>
+        <v>-85.942599999999999</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B104">
-        <v>36.396900000000002</v>
+        <v>36.004600000000003</v>
       </c>
       <c r="C104">
-        <v>-86.711100000000002</v>
+        <v>-85.977900000000005</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B105">
-        <v>35.788200000000003</v>
+        <v>36.063699999999997</v>
       </c>
       <c r="C105">
-        <v>-83.936300000000003</v>
+        <v>-87.366500000000002</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B106">
-        <v>36.1372</v>
+        <v>36.100499999999997</v>
       </c>
       <c r="C106">
-        <v>-88.5077</v>
+        <v>-87.211699999999993</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B107">
-        <v>36.524099999999997</v>
+        <v>36.186100000000003</v>
       </c>
       <c r="C107">
-        <v>-86.0304</v>
+        <v>-87.338899999999995</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>35.3675</v>
+        <v>36.050800000000002</v>
       </c>
       <c r="C108">
-        <v>-85.389899999999997</v>
+        <v>-87.298400000000001</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B109">
-        <v>35.869199999999999</v>
+        <v>36.235799999999998</v>
       </c>
       <c r="C109">
-        <v>-84.673100000000005</v>
+        <v>-87.444599999999994</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B110">
-        <v>36.561999999999998</v>
+        <v>36.2913</v>
       </c>
       <c r="C110">
-        <v>-82.661799999999999</v>
+        <v>-87.465599999999995</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B111">
-        <v>36.2607</v>
+        <v>36.046500000000002</v>
       </c>
       <c r="C111">
-        <v>-87.041200000000003</v>
+        <v>-89.377700000000004</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B112">
-        <v>35.815199999999997</v>
+        <v>36.116900000000001</v>
       </c>
       <c r="C112">
-        <v>-88.790099999999995</v>
+        <v>-89.271299999999997</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B113">
-        <v>35.523200000000003</v>
+        <v>35.972000000000001</v>
       </c>
       <c r="C113">
-        <v>-84.363</v>
+        <v>-89.388000000000005</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B114">
-        <v>35.264499999999998</v>
+        <v>36.201999999999998</v>
       </c>
       <c r="C114">
-        <v>-89.011799999999994</v>
+        <v>-89.187899999999999</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B115">
-        <v>35.958399999999997</v>
+        <v>36.035699999999999</v>
       </c>
       <c r="C115">
-        <v>-85.821100000000001</v>
+        <v>-89.479900000000001</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B116">
-        <v>36.389299999999999</v>
+        <v>36.087600000000002</v>
       </c>
       <c r="C116">
-        <v>-87.045500000000004</v>
+        <v>-89.497200000000007</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B117">
-        <v>35.934699999999999</v>
+        <v>36.161999999999999</v>
       </c>
       <c r="C117">
-        <v>-85.4726</v>
+        <v>-89.438999999999993</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B118">
-        <v>35.548299999999998</v>
+        <v>36.160400000000003</v>
       </c>
       <c r="C118">
-        <v>-87.187200000000004</v>
+        <v>-89.494</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B119">
-        <v>36.065199999999997</v>
+        <v>35.2256</v>
       </c>
       <c r="C119">
-        <v>-86.840299999999999</v>
+        <v>-89.537199999999999</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B120">
-        <v>35.719299999999997</v>
+        <v>35.235199999999999</v>
       </c>
       <c r="C120">
-        <v>-86.412899999999993</v>
+        <v>-89.386899999999997</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B121">
-        <v>36.073500000000003</v>
+        <v>35.051200000000001</v>
       </c>
       <c r="C121">
-        <v>-86.785600000000002</v>
+        <v>-89.609099999999998</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B122">
-        <v>35.317999999999998</v>
+        <v>35.032400000000003</v>
       </c>
       <c r="C122">
-        <v>-89.149799999999999</v>
+        <v>-89.561199999999999</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B123">
-        <v>36.408099999999997</v>
+        <v>35.061100000000003</v>
       </c>
       <c r="C123">
-        <v>-83.004300000000001</v>
+        <v>-89.389300000000006</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B124">
-        <v>36.414200000000001</v>
+        <v>35.327199999999998</v>
       </c>
       <c r="C124">
-        <v>-86.965800000000002</v>
+        <v>-89.608000000000004</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B125">
-        <v>35.870100000000001</v>
+        <v>35.158499999999997</v>
       </c>
       <c r="C125">
-        <v>-85.061400000000006</v>
+        <v>-89.375399999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B126">
-        <v>36.422199999999997</v>
+        <v>35.368499999999997</v>
       </c>
       <c r="C126">
-        <v>-82.429299999999998</v>
+        <v>-89.571799999999996</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B127">
-        <v>35.1708</v>
+        <v>35.047600000000003</v>
       </c>
       <c r="C127">
-        <v>-88.595500000000001</v>
+        <v>-89.240899999999996</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B128">
-        <v>36.005200000000002</v>
+        <v>36.431899999999999</v>
       </c>
       <c r="C128">
-        <v>-88.418099999999995</v>
+        <v>-84.934100000000001</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B129">
-        <v>35.010399999999997</v>
+        <v>36.381100000000004</v>
       </c>
       <c r="C129">
-        <v>-85.014200000000002</v>
+        <v>-84.881399999999999</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B130">
-        <v>35.8247</v>
+        <v>36.2761</v>
       </c>
       <c r="C130">
-        <v>-84.055199999999999</v>
+        <v>-84.997</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B131">
-        <v>36.575200000000002</v>
+        <v>36.185699999999997</v>
       </c>
       <c r="C131">
-        <v>-83.646199999999993</v>
+        <v>-85.009600000000006</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B132">
-        <v>36.093899999999998</v>
+        <v>35.189799999999998</v>
       </c>
       <c r="C132">
-        <v>-87.784700000000001</v>
+        <v>-86.107500000000002</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B133">
-        <v>35.968899999999998</v>
+        <v>35.197499999999998</v>
       </c>
       <c r="C133">
-        <v>-88.944999999999993</v>
+        <v>-85.921300000000002</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B134">
-        <v>36.377499999999998</v>
+        <v>35.215600000000002</v>
       </c>
       <c r="C134">
-        <v>-86.616799999999998</v>
+        <v>-86.075699999999998</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B135">
-        <v>36.200000000000003</v>
+        <v>35.275500000000001</v>
       </c>
       <c r="C135">
-        <v>-85.446799999999996</v>
+        <v>-86.14</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B136">
-        <v>36.100499999999997</v>
+        <v>35.1629</v>
       </c>
       <c r="C136">
-        <v>-87.211699999999993</v>
+        <v>-86.014200000000002</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B137">
-        <v>36.387500000000003</v>
+        <v>35.057899999999997</v>
       </c>
       <c r="C137">
-        <v>-85.326499999999996</v>
+        <v>-86.268900000000002</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B138">
-        <v>35.977800000000002</v>
+        <v>35.128100000000003</v>
       </c>
       <c r="C138">
-        <v>-84.109099999999998</v>
+        <v>-86.188100000000006</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B139">
-        <v>36.221699999999998</v>
+        <v>35.0749</v>
       </c>
       <c r="C139">
-        <v>-82.3292</v>
+        <v>-85.925899999999999</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B140">
-        <v>36.517099999999999</v>
+        <v>35.912599999999998</v>
       </c>
       <c r="C140">
-        <v>-84.510800000000003</v>
+        <v>-88.755399999999995</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B141">
-        <v>35.551499999999997</v>
+        <v>35.827100000000002</v>
       </c>
       <c r="C141">
-        <v>-87.553899999999999</v>
+        <v>-88.905799999999999</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B142">
-        <v>36.442999999999998</v>
+        <v>35.815199999999997</v>
       </c>
       <c r="C142">
-        <v>-82.462100000000007</v>
+        <v>-88.790099999999995</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B143">
-        <v>36.387099999999997</v>
+        <v>35.968899999999998</v>
       </c>
       <c r="C143">
-        <v>-89.471199999999996</v>
+        <v>-88.944999999999993</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B144">
-        <v>36.066299999999998</v>
+        <v>36.070999999999998</v>
       </c>
       <c r="C144">
-        <v>-88.104699999999994</v>
+        <v>-88.992099999999994</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B145">
-        <v>35.725000000000001</v>
+        <v>36.202100000000002</v>
       </c>
       <c r="C145">
-        <v>-83.493799999999993</v>
+        <v>-89.015500000000003</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B146">
-        <v>35.338099999999997</v>
+        <v>36.073700000000002</v>
       </c>
       <c r="C146">
-        <v>-84.528199999999998</v>
+        <v>-88.816299999999998</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B147">
-        <v>35.066299999999998</v>
+        <v>36.124899999999997</v>
       </c>
       <c r="C147">
-        <v>-85.622699999999995</v>
+        <v>-88.992000000000004</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B148">
-        <v>35.804200000000002</v>
+        <v>35.874299999999998</v>
       </c>
       <c r="C148">
-        <v>-87.457700000000003</v>
+        <v>-88.843699999999998</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B149">
-        <v>35.089300000000001</v>
+        <v>36.0976</v>
       </c>
       <c r="C149">
-        <v>-84.851200000000006</v>
+        <v>-89.118300000000005</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B150">
-        <v>35.235199999999999</v>
+        <v>35.193300000000001</v>
       </c>
       <c r="C150">
-        <v>-89.386899999999997</v>
+        <v>-87.034999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B151">
-        <v>36.028399999999998</v>
+        <v>35.003100000000003</v>
       </c>
       <c r="C151">
-        <v>-83.430800000000005</v>
+        <v>-86.854799999999997</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B152">
-        <v>36.039900000000003</v>
+        <v>35.042400000000001</v>
       </c>
       <c r="C152">
-        <v>-84.328500000000005</v>
+        <v>-87.165400000000005</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B153">
-        <v>36.116900000000001</v>
+        <v>35.0627</v>
       </c>
       <c r="C153">
-        <v>-89.271299999999997</v>
+        <v>-86.895700000000005</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B154">
-        <v>36.174999999999997</v>
+        <v>35.3782</v>
       </c>
       <c r="C154">
-        <v>-82.745400000000004</v>
+        <v>-87.005399999999995</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B155">
-        <v>36.533000000000001</v>
+        <v>35.021900000000002</v>
       </c>
       <c r="C155">
-        <v>-82.328999999999994</v>
+        <v>-86.998999999999995</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B156">
-        <v>35.078200000000002</v>
+        <v>35.194299999999998</v>
       </c>
       <c r="C156">
-        <v>-86.583399999999997</v>
+        <v>-86.856999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B157">
-        <v>35.011099999999999</v>
+        <v>36.332299999999996</v>
       </c>
       <c r="C157">
-        <v>-85.718299999999999</v>
+        <v>-83.285200000000003</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B158">
-        <v>35.197499999999998</v>
+        <v>36.147799999999997</v>
       </c>
       <c r="C158">
-        <v>-85.921300000000002</v>
+        <v>-83.693899999999999</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -2450,2694 +2455,2694 @@
         <v>75</v>
       </c>
       <c r="B159">
-        <v>36.332299999999996</v>
+        <v>36.275700000000001</v>
       </c>
       <c r="C159">
-        <v>-83.285200000000003</v>
+        <v>-83.531099999999995</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B160">
-        <v>36.279000000000003</v>
+        <v>36.167999999999999</v>
       </c>
       <c r="C160">
-        <v>-88.694000000000003</v>
+        <v>-82.819699999999997</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B161">
-        <v>36.067300000000003</v>
+        <v>36.174999999999997</v>
       </c>
       <c r="C161">
-        <v>-83.764899999999997</v>
+        <v>-82.745400000000004</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B162">
-        <v>35.481299999999997</v>
+        <v>36.195500000000003</v>
       </c>
       <c r="C162">
-        <v>-89.735299999999995</v>
+        <v>-82.965500000000006</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B163">
-        <v>36.462499999999999</v>
+        <v>36.330399999999997</v>
       </c>
       <c r="C163">
-        <v>-83.566900000000004</v>
+        <v>-82.8292</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B164">
-        <v>36.099400000000003</v>
+        <v>35.262</v>
       </c>
       <c r="C164">
-        <v>-86.856200000000001</v>
+        <v>-85.751499999999993</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B165">
-        <v>35.215600000000002</v>
+        <v>35.236699999999999</v>
       </c>
       <c r="C165">
-        <v>-86.075699999999998</v>
+        <v>-85.851299999999995</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B166">
-        <v>36.084200000000003</v>
+        <v>35.372599999999998</v>
       </c>
       <c r="C166">
-        <v>-87.103899999999996</v>
+        <v>-85.637500000000003</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B167">
-        <v>36.147799999999997</v>
+        <v>35.345799999999997</v>
       </c>
       <c r="C167">
-        <v>-83.693899999999999</v>
+        <v>-85.711299999999994</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B168">
-        <v>36.485300000000002</v>
+        <v>35.432499999999997</v>
       </c>
       <c r="C168">
-        <v>-82.506900000000002</v>
+        <v>-85.743300000000005</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B169">
-        <v>36.021900000000002</v>
+        <v>35.357599999999998</v>
       </c>
       <c r="C169">
-        <v>-84.441400000000002</v>
+        <v>-85.565600000000003</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B170">
-        <v>36.335099999999997</v>
+        <v>35.459000000000003</v>
       </c>
       <c r="C170">
-        <v>-84.192800000000005</v>
+        <v>-85.668899999999994</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B171">
-        <v>36.438099999999999</v>
+        <v>35.334200000000003</v>
       </c>
       <c r="C171">
-        <v>-83.6053</v>
+        <v>-85.8703</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B172">
-        <v>35.389400000000002</v>
+        <v>36.204300000000003</v>
       </c>
       <c r="C172">
-        <v>-85.087400000000002</v>
+        <v>-83.3001</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B173">
-        <v>36.1447</v>
+        <v>36.258000000000003</v>
       </c>
       <c r="C173">
-        <v>-85.264300000000006</v>
+        <v>-83.196600000000004</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B174">
-        <v>35.8247</v>
+        <v>35.066000000000003</v>
       </c>
       <c r="C174">
-        <v>-86.072299999999998</v>
+        <v>-85.248099999999994</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B175">
-        <v>36.561999999999998</v>
+        <v>34.997300000000003</v>
       </c>
       <c r="C175">
-        <v>-86.245999999999995</v>
+        <v>-85.228499999999997</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B176">
-        <v>35.602699999999999</v>
+        <v>35.257100000000001</v>
       </c>
       <c r="C176">
-        <v>-85.198400000000007</v>
+        <v>-85.173900000000003</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B177">
-        <v>35.379199999999997</v>
+        <v>35.111699999999999</v>
       </c>
       <c r="C177">
-        <v>-87.992699999999999</v>
+        <v>-85.296199999999999</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B178">
-        <v>35.238799999999998</v>
+        <v>35.1877</v>
       </c>
       <c r="C178">
-        <v>-84.913899999999998</v>
+        <v>-85.195899999999995</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B179">
-        <v>35.256399999999999</v>
+        <v>35.052599999999998</v>
       </c>
       <c r="C179">
-        <v>-88.386200000000002</v>
+        <v>-85.0488</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B180">
-        <v>35.651299999999999</v>
+        <v>35.144799999999996</v>
       </c>
       <c r="C180">
-        <v>-88.123099999999994</v>
+        <v>-85.345699999999994</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B181">
-        <v>35.783000000000001</v>
+        <v>35.127099999999999</v>
       </c>
       <c r="C181">
-        <v>-89.116799999999998</v>
+        <v>-85.145300000000006</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B182">
-        <v>36.108699999999999</v>
+        <v>35.010399999999997</v>
       </c>
       <c r="C182">
-        <v>-83.296999999999997</v>
+        <v>-85.014200000000002</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B183">
-        <v>35.720300000000002</v>
+        <v>35.389400000000002</v>
       </c>
       <c r="C183">
-        <v>-89.085899999999995</v>
+        <v>-85.087400000000002</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B184">
-        <v>36.063200000000002</v>
+        <v>34.994399999999999</v>
       </c>
       <c r="C184">
-        <v>-83.659400000000005</v>
+        <v>-85.351600000000005</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B185">
-        <v>36.247</v>
+        <v>35.195900000000002</v>
       </c>
       <c r="C185">
-        <v>-83.805700000000002</v>
+        <v>-85.259399999999999</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B186">
-        <v>36.195500000000003</v>
+        <v>35.2027</v>
       </c>
       <c r="C186">
-        <v>-82.965500000000006</v>
+        <v>-85.141300000000001</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B187">
-        <v>35.323500000000003</v>
+        <v>35.186500000000002</v>
       </c>
       <c r="C187">
-        <v>-87.759299999999996</v>
+        <v>-85.330299999999994</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B188">
-        <v>36.567900000000002</v>
+        <v>35.275100000000002</v>
       </c>
       <c r="C188">
-        <v>-82.265500000000003</v>
+        <v>-85.222499999999997</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B189">
-        <v>35.051200000000001</v>
+        <v>35.163499999999999</v>
       </c>
       <c r="C189">
-        <v>-89.609099999999998</v>
+        <v>-85.309799999999996</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B190">
-        <v>36.115699999999997</v>
+        <v>35.331899999999997</v>
       </c>
       <c r="C190">
-        <v>-86.514499999999998</v>
+        <v>-85.2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B191">
-        <v>36.256599999999999</v>
+        <v>35.0349</v>
       </c>
       <c r="C191">
-        <v>-85.942999999999998</v>
+        <v>-85.247</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B192">
-        <v>36.070999999999998</v>
+        <v>35.072299999999998</v>
       </c>
       <c r="C192">
-        <v>-88.992099999999994</v>
+        <v>-85.054500000000004</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B193">
-        <v>35.688099999999999</v>
+        <v>36.5366</v>
       </c>
       <c r="C193">
-        <v>-84.862200000000001</v>
+        <v>-83.209800000000001</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B194">
-        <v>36.180700000000002</v>
+        <v>35.264499999999998</v>
       </c>
       <c r="C194">
-        <v>-83.793300000000002</v>
+        <v>-89.011799999999994</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B195">
-        <v>36.4696</v>
+        <v>35.317999999999998</v>
       </c>
       <c r="C195">
-        <v>-81.804900000000004</v>
+        <v>-89.149799999999999</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B196">
-        <v>36.4589</v>
+        <v>35.0593</v>
       </c>
       <c r="C196">
-        <v>-82.276799999999994</v>
+        <v>-88.890199999999993</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B197">
-        <v>36.1158</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="C197">
-        <v>-86.431600000000003</v>
+        <v>-89.188900000000004</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B198">
-        <v>36.474499999999999</v>
+        <v>35.356499999999997</v>
       </c>
       <c r="C198">
-        <v>-82.859300000000005</v>
+        <v>-88.9542</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B199">
-        <v>36.103700000000003</v>
+        <v>35.228499999999997</v>
       </c>
       <c r="C199">
-        <v>-87.0565</v>
+        <v>-88.829300000000003</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B200">
-        <v>35.533999999999999</v>
+        <v>35.054699999999997</v>
       </c>
       <c r="C200">
-        <v>-86.083200000000005</v>
+        <v>-88.801900000000003</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B201">
-        <v>35.1524</v>
+        <v>35.0488</v>
       </c>
       <c r="C201">
-        <v>-84.854100000000003</v>
+        <v>-89.088399999999993</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B202">
-        <v>36.404400000000003</v>
+        <v>35.155000000000001</v>
       </c>
       <c r="C202">
-        <v>-86.768100000000004</v>
+        <v>-89.126000000000005</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B203">
-        <v>36.296500000000002</v>
+        <v>35.011299999999999</v>
       </c>
       <c r="C203">
-        <v>-82.310599999999994</v>
+        <v>-88.802499999999995</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B204">
-        <v>36.431899999999999</v>
+        <v>35.342399999999998</v>
       </c>
       <c r="C204">
-        <v>-84.934100000000001</v>
+        <v>-88.809799999999996</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B205">
-        <v>34.994399999999999</v>
+        <v>35.220999999999997</v>
       </c>
       <c r="C205">
-        <v>-85.351600000000005</v>
+        <v>-88.236000000000004</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B206">
-        <v>36.493099999999998</v>
+        <v>35.204799999999999</v>
       </c>
       <c r="C206">
-        <v>-88.883499999999998</v>
+        <v>-88.193899999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B207">
-        <v>35.195900000000002</v>
+        <v>35.231499999999997</v>
       </c>
       <c r="C207">
-        <v>-85.259399999999999</v>
+        <v>-88.338099999999997</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B208">
-        <v>36.159999999999997</v>
+        <v>35.382100000000001</v>
       </c>
       <c r="C208">
-        <v>-88.803600000000003</v>
+        <v>-88.239599999999996</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B209">
-        <v>36.4818</v>
+        <v>35.040399999999998</v>
       </c>
       <c r="C209">
-        <v>-87.843800000000002</v>
+        <v>-88.271699999999996</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B210">
-        <v>36.325200000000002</v>
+        <v>35.114800000000002</v>
       </c>
       <c r="C210">
-        <v>-84.219899999999996</v>
+        <v>-88.258300000000006</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B211">
-        <v>36.241399999999999</v>
+        <v>35.313899999999997</v>
       </c>
       <c r="C211">
-        <v>-85.957499999999996</v>
+        <v>-88.355800000000002</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B212">
-        <v>35.2027</v>
+        <v>35.110399999999998</v>
       </c>
       <c r="C212">
-        <v>-85.141300000000001</v>
+        <v>-88.363799999999998</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B213">
-        <v>35.275500000000001</v>
+        <v>35.081600000000002</v>
       </c>
       <c r="C213">
-        <v>-86.14</v>
+        <v>-88.326700000000002</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B214">
-        <v>36.3675</v>
+        <v>36.520400000000002</v>
       </c>
       <c r="C214">
-        <v>-82.224299999999999</v>
+        <v>-82.715100000000007</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B215">
-        <v>36.397799999999997</v>
+        <v>36.561999999999998</v>
       </c>
       <c r="C215">
-        <v>-82.1511</v>
+        <v>-82.661799999999999</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B216">
-        <v>35.8795</v>
+        <v>36.408099999999997</v>
       </c>
       <c r="C216">
-        <v>-89.405000000000001</v>
+        <v>-83.004300000000001</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B217">
-        <v>35.771999999999998</v>
+        <v>36.474499999999999</v>
       </c>
       <c r="C217">
-        <v>-88.857200000000006</v>
+        <v>-82.859300000000005</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B218">
-        <v>36.119599999999998</v>
+        <v>36.261499999999998</v>
       </c>
       <c r="C218">
-        <v>-86.767300000000006</v>
+        <v>-83.078800000000001</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B219">
-        <v>36.328899999999997</v>
+        <v>36.353099999999998</v>
       </c>
       <c r="C219">
-        <v>-82.293999999999997</v>
+        <v>-83.236199999999997</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B220">
-        <v>35.186500000000002</v>
+        <v>35.588999999999999</v>
       </c>
       <c r="C220">
-        <v>-85.330299999999994</v>
+        <v>-89.257800000000003</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B221">
-        <v>36.016300000000001</v>
+        <v>35.461300000000001</v>
       </c>
       <c r="C221">
-        <v>-87.9696</v>
+        <v>-89.401200000000003</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B222">
-        <v>35.262</v>
+        <v>35.406700000000001</v>
       </c>
       <c r="C222">
-        <v>-85.751499999999993</v>
+        <v>-89.296999999999997</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B223">
-        <v>36.341999999999999</v>
+        <v>35.661799999999999</v>
       </c>
       <c r="C223">
-        <v>-89.158299999999997</v>
+        <v>-88.394400000000005</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B224">
-        <v>36.304299999999998</v>
+        <v>35.518799999999999</v>
       </c>
       <c r="C224">
-        <v>-82.194800000000001</v>
+        <v>-88.252700000000004</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B225">
-        <v>35.928100000000001</v>
+        <v>35.646799999999999</v>
       </c>
       <c r="C225">
-        <v>-87.312399999999997</v>
+        <v>-88.27</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B226">
-        <v>36.186100000000003</v>
+        <v>35.638399999999997</v>
       </c>
       <c r="C226">
-        <v>-87.338899999999995</v>
+        <v>-88.226100000000002</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B227">
-        <v>35.191800000000001</v>
+        <v>35.789400000000001</v>
       </c>
       <c r="C227">
-        <v>-85.521199999999993</v>
+        <v>-88.390500000000003</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B228">
-        <v>35.529000000000003</v>
+        <v>35.442399999999999</v>
       </c>
       <c r="C228">
-        <v>-84.793300000000002</v>
+        <v>-88.291300000000007</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B229">
-        <v>35.363399999999999</v>
+        <v>35.776600000000002</v>
       </c>
       <c r="C229">
-        <v>-86.858400000000003</v>
+        <v>-88.356099999999998</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B230">
-        <v>36.225000000000001</v>
+        <v>35.601700000000001</v>
       </c>
       <c r="C230">
-        <v>-84.154799999999994</v>
+        <v>-88.570300000000003</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B231">
-        <v>35.597700000000003</v>
+        <v>35.593499999999999</v>
       </c>
       <c r="C231">
-        <v>-84.236400000000003</v>
+        <v>-88.536100000000005</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B232">
-        <v>36.565100000000001</v>
+        <v>36.293300000000002</v>
       </c>
       <c r="C232">
-        <v>-84.135499999999993</v>
+        <v>-88.3065</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B233">
-        <v>35.236699999999999</v>
+        <v>36.441299999999998</v>
       </c>
       <c r="C233">
-        <v>-85.851299999999995</v>
+        <v>-88.332400000000007</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B234">
-        <v>36.109900000000003</v>
+        <v>36.201099999999997</v>
       </c>
       <c r="C234">
-        <v>-87.635499999999993</v>
+        <v>-88.4114</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B235">
-        <v>36.541200000000003</v>
+        <v>36.433999999999997</v>
       </c>
       <c r="C235">
-        <v>-86.676500000000004</v>
+        <v>-88.202699999999993</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B236">
-        <v>35.275100000000002</v>
+        <v>36.378300000000003</v>
       </c>
       <c r="C236">
-        <v>-85.222499999999997</v>
+        <v>-88.4786</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B237">
-        <v>36.1096</v>
+        <v>36.370699999999999</v>
       </c>
       <c r="C237">
-        <v>-83.549300000000002</v>
+        <v>-88.361199999999997</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B238">
-        <v>36.546900000000001</v>
+        <v>35.804200000000002</v>
       </c>
       <c r="C238">
-        <v>-85.504300000000001</v>
+        <v>-87.457700000000003</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B239">
-        <v>35.1629</v>
+        <v>35.928100000000001</v>
       </c>
       <c r="C239">
-        <v>-86.014200000000002</v>
+        <v>-87.312399999999997</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B240">
-        <v>35.163499999999999</v>
+        <v>35.919499999999999</v>
       </c>
       <c r="C240">
-        <v>-85.309799999999996</v>
+        <v>-87.344999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B241">
-        <v>35.0792</v>
+        <v>35.899700000000003</v>
       </c>
       <c r="C241">
-        <v>-87.440100000000001</v>
+        <v>-87.3536</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B242">
-        <v>35.611699999999999</v>
+        <v>36.319400000000002</v>
       </c>
       <c r="C242">
-        <v>-86.573899999999995</v>
+        <v>-87.763099999999994</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B243">
-        <v>36.050800000000002</v>
+        <v>36.316000000000003</v>
       </c>
       <c r="C243">
-        <v>-87.298400000000001</v>
+        <v>-87.702500000000001</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B244">
-        <v>36.263199999999998</v>
+        <v>36.093899999999998</v>
       </c>
       <c r="C244">
-        <v>-89.480599999999995</v>
+        <v>-87.784700000000001</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B245">
-        <v>35.046900000000001</v>
+        <v>36.016300000000001</v>
       </c>
       <c r="C245">
-        <v>-85.674000000000007</v>
+        <v>-87.9696</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B246">
-        <v>36.277200000000001</v>
+        <v>36.109900000000003</v>
       </c>
       <c r="C246">
-        <v>-82.172799999999995</v>
+        <v>-87.635499999999993</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B247">
-        <v>36.5366</v>
+        <v>36.314900000000002</v>
       </c>
       <c r="C247">
-        <v>-83.209800000000001</v>
+        <v>-85.532200000000003</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B248">
-        <v>35.422800000000002</v>
+        <v>36.361699999999999</v>
       </c>
       <c r="C248">
-        <v>-84.488299999999995</v>
+        <v>-85.649600000000007</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B249">
-        <v>36.411200000000001</v>
+        <v>36.120100000000001</v>
       </c>
       <c r="C249">
-        <v>-84.505600000000001</v>
+        <v>-83.482900000000001</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B250">
-        <v>35.648699999999998</v>
+        <v>36.028399999999998</v>
       </c>
       <c r="C250">
-        <v>-84.172499999999999</v>
+        <v>-83.430800000000005</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B251">
-        <v>35.372599999999998</v>
+        <v>36.108699999999999</v>
       </c>
       <c r="C251">
-        <v>-85.637500000000003</v>
+        <v>-83.296999999999997</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B252">
-        <v>35.204799999999999</v>
+        <v>36.063200000000002</v>
       </c>
       <c r="C252">
-        <v>-88.193899999999999</v>
+        <v>-83.659400000000005</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B253">
-        <v>36.421900000000001</v>
+        <v>36.1096</v>
       </c>
       <c r="C253">
-        <v>-82.476699999999994</v>
+        <v>-83.549300000000002</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B254">
-        <v>36.319400000000002</v>
+        <v>36.046500000000002</v>
       </c>
       <c r="C254">
-        <v>-87.763099999999994</v>
+        <v>-83.278199999999998</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B255">
-        <v>35.628300000000003</v>
+        <v>36.4696</v>
       </c>
       <c r="C255">
-        <v>-86.697000000000003</v>
+        <v>-81.804900000000004</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B256">
-        <v>36.275700000000001</v>
+        <v>36.356200000000001</v>
       </c>
       <c r="C256">
-        <v>-83.531099999999995</v>
+        <v>-82.034700000000001</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B257">
-        <v>36.122300000000003</v>
+        <v>35.969200000000001</v>
       </c>
       <c r="C257">
-        <v>-82.420299999999997</v>
+        <v>-83.949600000000004</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B258">
-        <v>36.100700000000003</v>
+        <v>35.873100000000001</v>
       </c>
       <c r="C258">
-        <v>-86.139399999999995</v>
+        <v>-84.182100000000005</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B259">
-        <v>35.7393</v>
+        <v>36.035800000000002</v>
       </c>
       <c r="C259">
-        <v>-85.456000000000003</v>
+        <v>-84.029600000000002</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B260">
-        <v>36.202100000000002</v>
+        <v>36.081699999999998</v>
       </c>
       <c r="C260">
-        <v>-89.015500000000003</v>
+        <v>-83.934399999999997</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B261">
-        <v>36.213700000000003</v>
+        <v>35.977800000000002</v>
       </c>
       <c r="C261">
-        <v>-84.062899999999999</v>
+        <v>-84.109099999999998</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B262">
-        <v>35.200699999999998</v>
+        <v>36.067300000000003</v>
       </c>
       <c r="C262">
-        <v>-85.368499999999997</v>
+        <v>-83.764899999999997</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B263">
-        <v>35.184899999999999</v>
+        <v>36.037999999999997</v>
       </c>
       <c r="C263">
-        <v>-85.484800000000007</v>
+        <v>-83.825699999999998</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B264">
-        <v>36.530099999999997</v>
+        <v>36.387099999999997</v>
       </c>
       <c r="C264">
-        <v>-85.848100000000002</v>
+        <v>-89.471199999999996</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B265">
-        <v>35.612299999999998</v>
+        <v>36.263199999999998</v>
       </c>
       <c r="C265">
-        <v>-87.8429</v>
+        <v>-89.480599999999995</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B266">
-        <v>36.181699999999999</v>
+        <v>36.330100000000002</v>
       </c>
       <c r="C266">
-        <v>-85.932400000000001</v>
+        <v>-89.468599999999995</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B267">
-        <v>35.057899999999997</v>
+        <v>35.744900000000001</v>
       </c>
       <c r="C267">
-        <v>-86.268900000000002</v>
+        <v>-89.535799999999995</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B268">
-        <v>35.449399999999997</v>
+        <v>35.8795</v>
       </c>
       <c r="C268">
-        <v>-85.0762</v>
+        <v>-89.405000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B269">
-        <v>36.0349</v>
+        <v>35.682000000000002</v>
       </c>
       <c r="C269">
-        <v>-88.246600000000001</v>
+        <v>-89.576999999999998</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B270">
-        <v>35.174900000000001</v>
+        <v>35.840600000000002</v>
       </c>
       <c r="C270">
-        <v>-84.651600000000002</v>
+        <v>-89.408100000000005</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B271">
-        <v>36.573700000000002</v>
+        <v>35.249699999999997</v>
       </c>
       <c r="C271">
-        <v>-85.134200000000007</v>
+        <v>-87.332499999999996</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B272">
-        <v>36.487699999999997</v>
+        <v>35.0792</v>
       </c>
       <c r="C272">
-        <v>-82.591200000000001</v>
+        <v>-87.440100000000001</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B273">
-        <v>36.403799999999997</v>
+        <v>35.434399999999997</v>
       </c>
       <c r="C273">
-        <v>-84.048000000000002</v>
+        <v>-87.308400000000006</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B274">
-        <v>35.881300000000003</v>
+        <v>35.033099999999997</v>
       </c>
       <c r="C274">
-        <v>-84.5715</v>
+        <v>-87.500699999999995</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B275">
-        <v>35.003100000000003</v>
+        <v>35.321800000000003</v>
       </c>
       <c r="C275">
-        <v>-86.854799999999997</v>
+        <v>-87.301299999999998</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B276">
-        <v>36.153599999999997</v>
+        <v>35.158200000000001</v>
       </c>
       <c r="C276">
-        <v>-85.634799999999998</v>
+        <v>-87.346400000000003</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B277">
-        <v>36.1038</v>
+        <v>35.134900000000002</v>
       </c>
       <c r="C277">
-        <v>-84.585899999999995</v>
+        <v>-87.537700000000001</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B278">
-        <v>35.682000000000002</v>
+        <v>35.0227</v>
       </c>
       <c r="C278">
-        <v>-89.576999999999998</v>
+        <v>-87.585499999999996</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B279">
-        <v>35.231499999999997</v>
+        <v>35.551499999999997</v>
       </c>
       <c r="C279">
-        <v>-88.338099999999997</v>
+        <v>-87.553899999999999</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B280">
-        <v>36.073700000000002</v>
+        <v>35.149000000000001</v>
       </c>
       <c r="C280">
-        <v>-88.816299999999998</v>
+        <v>-86.563400000000001</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B281">
-        <v>35.974699999999999</v>
+        <v>35.078200000000002</v>
       </c>
       <c r="C281">
-        <v>-88.668899999999994</v>
+        <v>-86.583399999999997</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B282">
-        <v>35.7669</v>
+        <v>35.317300000000003</v>
       </c>
       <c r="C282">
-        <v>-86.521000000000001</v>
+        <v>-86.640699999999995</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B283">
-        <v>36.316000000000003</v>
+        <v>35.060200000000002</v>
       </c>
       <c r="C283">
-        <v>-87.702500000000001</v>
+        <v>-86.416399999999996</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B284">
-        <v>36.124899999999997</v>
+        <v>35.0261</v>
       </c>
       <c r="C284">
-        <v>-88.992000000000004</v>
+        <v>-86.717600000000004</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B285">
-        <v>36.217399999999998</v>
+        <v>35.043700000000001</v>
       </c>
       <c r="C285">
-        <v>-88.610699999999994</v>
+        <v>-86.753200000000007</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B286">
-        <v>35.032400000000003</v>
+        <v>35.115900000000003</v>
       </c>
       <c r="C286">
-        <v>-89.561199999999999</v>
+        <v>-86.803600000000003</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B287">
-        <v>36.564</v>
+        <v>35.811100000000003</v>
       </c>
       <c r="C287">
-        <v>-84.445499999999996</v>
+        <v>-84.281800000000004</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B288">
-        <v>36.314900000000002</v>
+        <v>35.698399999999999</v>
       </c>
       <c r="C288">
-        <v>-85.532200000000003</v>
+        <v>-84.264099999999999</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B289">
-        <v>35.518799999999999</v>
+        <v>35.741399999999999</v>
       </c>
       <c r="C289">
-        <v>-88.252700000000004</v>
+        <v>-84.370099999999994</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B290">
-        <v>36.079099999999997</v>
+        <v>35.648699999999998</v>
       </c>
       <c r="C290">
-        <v>-86.038200000000003</v>
+        <v>-84.172499999999999</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B291">
-        <v>35.799900000000001</v>
+        <v>35.679099999999998</v>
       </c>
       <c r="C291">
-        <v>-83.868499999999997</v>
+        <v>-84.399900000000002</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B292">
-        <v>35.412799999999997</v>
+        <v>36.524099999999997</v>
       </c>
       <c r="C292">
-        <v>-89.541200000000003</v>
+        <v>-86.0304</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B293">
-        <v>35.366500000000002</v>
+        <v>36.530099999999997</v>
       </c>
       <c r="C293">
-        <v>-84.298199999999994</v>
+        <v>-85.848100000000002</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B294">
-        <v>36.234900000000003</v>
+        <v>35.653799999999997</v>
       </c>
       <c r="C294">
-        <v>-88.825199999999995</v>
+        <v>-88.835400000000007</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B295">
-        <v>35.345799999999997</v>
+        <v>35.771999999999998</v>
       </c>
       <c r="C295">
-        <v>-85.711299999999994</v>
+        <v>-88.857200000000006</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B296">
-        <v>35.432499999999997</v>
+        <v>35.604700000000001</v>
       </c>
       <c r="C296">
-        <v>-85.743300000000005</v>
+        <v>-88.629199999999997</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B297">
-        <v>36.593800000000002</v>
+        <v>35.4818</v>
       </c>
       <c r="C297">
-        <v>-86.701499999999996</v>
+        <v>-88.730599999999995</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B298">
-        <v>36.264699999999998</v>
+        <v>35.455599999999997</v>
       </c>
       <c r="C298">
-        <v>-89.194800000000001</v>
+        <v>-88.863600000000005</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B299">
-        <v>36.361699999999999</v>
+        <v>35.474499999999999</v>
       </c>
       <c r="C299">
-        <v>-85.649600000000007</v>
+        <v>-89.039400000000001</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B300">
-        <v>35.919499999999999</v>
+        <v>35.066299999999998</v>
       </c>
       <c r="C300">
-        <v>-87.344999999999999</v>
+        <v>-85.622699999999995</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B301">
-        <v>36.381100000000004</v>
+        <v>35.011099999999999</v>
       </c>
       <c r="C301">
-        <v>-84.881399999999999</v>
+        <v>-85.718299999999999</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B302">
-        <v>36.4161</v>
+        <v>35.191800000000001</v>
       </c>
       <c r="C302">
-        <v>-82.624200000000002</v>
+        <v>-85.521199999999993</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B303">
-        <v>35.756300000000003</v>
+        <v>35.046900000000001</v>
       </c>
       <c r="C303">
-        <v>-84.131900000000002</v>
+        <v>-85.674000000000007</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B304">
-        <v>35.331899999999997</v>
+        <v>35.184899999999999</v>
       </c>
       <c r="C304">
-        <v>-85.2</v>
+        <v>-85.484800000000007</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B305">
-        <v>35.174599999999998</v>
+        <v>35.004399999999997</v>
       </c>
       <c r="C305">
-        <v>-87.744200000000006</v>
+        <v>-85.659800000000004</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B306">
-        <v>36.011000000000003</v>
+        <v>35.111499999999999</v>
       </c>
       <c r="C306">
-        <v>-88.620599999999996</v>
+        <v>-85.596500000000006</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B307">
-        <v>35.648099999999999</v>
+        <v>35.2761</v>
       </c>
       <c r="C307">
-        <v>-86.1357</v>
+        <v>-85.536100000000005</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B308">
-        <v>35.8705</v>
+        <v>35.014699999999998</v>
       </c>
       <c r="C308">
-        <v>-88.393699999999995</v>
+        <v>-85.8048</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B309">
-        <v>36.176699999999997</v>
+        <v>34.994599999999998</v>
       </c>
       <c r="C309">
-        <v>-82.449399999999997</v>
+        <v>-85.486800000000002</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B310">
-        <v>36.209600000000002</v>
+        <v>35.451000000000001</v>
       </c>
       <c r="C310">
-        <v>-83.748500000000007</v>
+        <v>-86.790099999999995</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B311">
-        <v>36.037999999999997</v>
+        <v>35.363399999999999</v>
       </c>
       <c r="C311">
-        <v>-83.825699999999998</v>
+        <v>-86.858400000000003</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B312">
-        <v>36.186599999999999</v>
+        <v>35.628300000000003</v>
       </c>
       <c r="C312">
-        <v>-82.070599999999999</v>
+        <v>-86.697000000000003</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B313">
-        <v>35.750799999999998</v>
+        <v>35.743699999999997</v>
       </c>
       <c r="C313">
-        <v>-87.7958</v>
+        <v>-86.911600000000007</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B314">
-        <v>36.2761</v>
+        <v>35.623800000000003</v>
       </c>
       <c r="C314">
-        <v>-84.997</v>
+        <v>-87.048400000000001</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B315">
-        <v>35.739100000000001</v>
+        <v>35.548299999999998</v>
       </c>
       <c r="C315">
-        <v>-86.652799999999999</v>
+        <v>-87.187200000000004</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B316">
-        <v>35.004399999999997</v>
+        <v>35.457299999999996</v>
       </c>
       <c r="C316">
-        <v>-85.659800000000004</v>
+        <v>-84.604500000000002</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B317">
-        <v>36.261499999999998</v>
+        <v>35.338099999999997</v>
       </c>
       <c r="C317">
-        <v>-83.078800000000001</v>
+        <v>-84.528199999999998</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B318">
-        <v>35.0349</v>
+        <v>35.422800000000002</v>
       </c>
       <c r="C318">
-        <v>-85.247</v>
+        <v>-84.488299999999995</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B319">
-        <v>35.972000000000001</v>
+        <v>35.389499999999998</v>
       </c>
       <c r="C319">
-        <v>-89.388000000000005</v>
+        <v>-84.698899999999995</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B320">
-        <v>35.581899999999997</v>
+        <v>35.517099999999999</v>
       </c>
       <c r="C320">
-        <v>-88.119500000000002</v>
+        <v>-84.549899999999994</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B321">
-        <v>36.253399999999999</v>
+        <v>35.299300000000002</v>
       </c>
       <c r="C321">
-        <v>-82.547799999999995</v>
+        <v>-84.747200000000007</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B322">
-        <v>35.061100000000003</v>
+        <v>35.1708</v>
       </c>
       <c r="C322">
-        <v>-89.389300000000006</v>
+        <v>-88.595500000000001</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B323">
-        <v>35.906599999999997</v>
+        <v>35.256399999999999</v>
       </c>
       <c r="C323">
-        <v>-84.884699999999995</v>
+        <v>-88.386200000000002</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B324">
-        <v>36.353099999999998</v>
+        <v>35.087699999999998</v>
       </c>
       <c r="C324">
-        <v>-83.236199999999997</v>
+        <v>-88.5518</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B325">
-        <v>35.286200000000001</v>
+        <v>35.234200000000001</v>
       </c>
       <c r="C325">
-        <v>-84.761099999999999</v>
+        <v>-88.613100000000003</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B326">
-        <v>35.604799999999997</v>
+        <v>35.356999999999999</v>
       </c>
       <c r="C326">
-        <v>-85.911699999999996</v>
+        <v>-88.616900000000001</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B327">
-        <v>35.434399999999997</v>
+        <v>35.060400000000001</v>
       </c>
       <c r="C327">
-        <v>-87.308400000000006</v>
+        <v>-88.425700000000006</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B328">
-        <v>35.033099999999997</v>
+        <v>35.019100000000002</v>
       </c>
       <c r="C328">
-        <v>-87.500699999999995</v>
+        <v>-88.542699999999996</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B329">
-        <v>36.242800000000003</v>
+        <v>35.1569</v>
       </c>
       <c r="C329">
-        <v>-84.6798</v>
+        <v>-88.430199999999999</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B330">
-        <v>36.046500000000002</v>
+        <v>35.071800000000003</v>
       </c>
       <c r="C330">
-        <v>-83.278199999999998</v>
+        <v>-88.614699999999999</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B331">
-        <v>36.555999999999997</v>
+        <v>35.020899999999997</v>
       </c>
       <c r="C331">
-        <v>-82.464200000000005</v>
+        <v>-88.642600000000002</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="B332">
-        <v>35.389499999999998</v>
+        <v>35.529000000000003</v>
       </c>
       <c r="C332">
-        <v>-84.698899999999995</v>
+        <v>-84.793300000000002</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B333">
-        <v>35.2545</v>
+        <v>35.602899999999998</v>
       </c>
       <c r="C333">
-        <v>-84.557900000000004</v>
+        <v>-84.471599999999995</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B334">
-        <v>36.441299999999998</v>
+        <v>35.523200000000003</v>
       </c>
       <c r="C334">
-        <v>-88.332400000000007</v>
+        <v>-84.363</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B335">
-        <v>35.0593</v>
+        <v>35.597700000000003</v>
       </c>
       <c r="C335">
-        <v>-88.890199999999993</v>
+        <v>-84.236400000000003</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B336">
-        <v>35.087699999999998</v>
+        <v>35.366500000000002</v>
       </c>
       <c r="C336">
-        <v>-88.5518</v>
+        <v>-84.298199999999994</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B337">
-        <v>35.832799999999999</v>
+        <v>35.569000000000003</v>
       </c>
       <c r="C337">
-        <v>-83.9358</v>
+        <v>-84.235799999999998</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B338">
-        <v>35.234200000000001</v>
+        <v>35.263199999999998</v>
       </c>
       <c r="C338">
-        <v>-88.613100000000003</v>
+        <v>-84.288200000000003</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B339">
-        <v>35.382100000000001</v>
+        <v>36.569200000000002</v>
       </c>
       <c r="C339">
-        <v>-88.239599999999996</v>
+        <v>-87.341300000000004</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B340">
-        <v>35.525300000000001</v>
+        <v>35.284599999999998</v>
       </c>
       <c r="C340">
-        <v>-86.330100000000002</v>
+        <v>-86.358699999999999</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B341">
-        <v>35.517099999999999</v>
+        <v>36.021900000000002</v>
       </c>
       <c r="C341">
-        <v>-84.549899999999994</v>
+        <v>-84.441400000000002</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B342">
-        <v>35.357599999999998</v>
+        <v>36.1038</v>
       </c>
       <c r="C342">
-        <v>-85.565600000000003</v>
+        <v>-84.585899999999995</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B343">
-        <v>35.679099999999998</v>
+        <v>36.242800000000003</v>
       </c>
       <c r="C343">
-        <v>-84.399900000000002</v>
+        <v>-84.6798</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B344">
-        <v>36.258000000000003</v>
+        <v>36.102800000000002</v>
       </c>
       <c r="C344">
-        <v>-83.196600000000004</v>
+        <v>-84.450400000000002</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B345">
-        <v>36.035499999999999</v>
+        <v>35.9895</v>
       </c>
       <c r="C345">
-        <v>-88.274000000000001</v>
+        <v>-84.557299999999998</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B346">
-        <v>35.569000000000003</v>
+        <v>36.426699999999997</v>
       </c>
       <c r="C346">
-        <v>-84.235799999999998</v>
+        <v>-89.047399999999996</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B347">
-        <v>35.814500000000002</v>
+        <v>36.493099999999998</v>
       </c>
       <c r="C347">
-        <v>-89.2239</v>
+        <v>-88.883499999999998</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B348">
-        <v>35.321800000000003</v>
+        <v>36.341999999999999</v>
       </c>
       <c r="C348">
-        <v>-87.301299999999998</v>
+        <v>-89.158299999999997</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B349">
-        <v>35.9084</v>
+        <v>36.264699999999998</v>
       </c>
       <c r="C349">
-        <v>-89.241399999999999</v>
+        <v>-89.194800000000001</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B350">
-        <v>36.235799999999998</v>
+        <v>36.476599999999998</v>
       </c>
       <c r="C350">
-        <v>-87.444599999999994</v>
+        <v>-89.110399999999998</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B351">
-        <v>36.582799999999999</v>
+        <v>36.3352</v>
       </c>
       <c r="C351">
-        <v>-87.065100000000001</v>
+        <v>-89.298299999999998</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B352">
-        <v>35.590800000000002</v>
+        <v>36.356000000000002</v>
       </c>
       <c r="C352">
-        <v>-86.353800000000007</v>
+        <v>-89.049499999999995</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B353">
-        <v>35.646799999999999</v>
+        <v>36.382300000000001</v>
       </c>
       <c r="C353">
-        <v>-88.27</v>
+        <v>-89.353300000000004</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B354">
-        <v>36.401200000000003</v>
+        <v>36.387500000000003</v>
       </c>
       <c r="C354">
-        <v>-86.306700000000006</v>
+        <v>-85.326499999999996</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B355">
-        <v>36.185699999999997</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="C355">
-        <v>-85.009600000000006</v>
+        <v>-85.442099999999996</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B356">
-        <v>36.368699999999997</v>
+        <v>35.612299999999998</v>
       </c>
       <c r="C356">
-        <v>-82.291899999999998</v>
+        <v>-87.8429</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B357">
-        <v>35.638399999999997</v>
+        <v>35.750799999999998</v>
       </c>
       <c r="C357">
-        <v>-88.226100000000002</v>
+        <v>-87.7958</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B358">
-        <v>35.840600000000002</v>
+        <v>36.573700000000002</v>
       </c>
       <c r="C358">
-        <v>-89.408100000000005</v>
+        <v>-85.134200000000007</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B359">
-        <v>35.459000000000003</v>
+        <v>35.174900000000001</v>
       </c>
       <c r="C359">
-        <v>-85.668899999999994</v>
+        <v>-84.651600000000002</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B360">
-        <v>35.356999999999999</v>
+        <v>35.2545</v>
       </c>
       <c r="C360">
-        <v>-88.616900000000001</v>
+        <v>-84.557900000000004</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B361">
-        <v>35.042400000000001</v>
+        <v>35.036000000000001</v>
       </c>
       <c r="C361">
-        <v>-87.165400000000005</v>
+        <v>-84.384799999999998</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B362">
-        <v>36.232700000000001</v>
+        <v>34.995199999999997</v>
       </c>
       <c r="C362">
-        <v>-88.084999999999994</v>
+        <v>-84.374899999999997</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B363">
-        <v>36.201099999999997</v>
+        <v>35.1235</v>
       </c>
       <c r="C363">
-        <v>-88.4114</v>
+        <v>-84.716700000000003</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B364">
-        <v>36.476599999999998</v>
+        <v>35.154299999999999</v>
       </c>
       <c r="C364">
-        <v>-89.110399999999998</v>
+        <v>-84.319100000000006</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B365">
-        <v>35.317300000000003</v>
+        <v>35.005200000000002</v>
       </c>
       <c r="C365">
-        <v>-86.640699999999995</v>
+        <v>-84.727599999999995</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B366">
-        <v>35.789400000000001</v>
+        <v>36.148200000000003</v>
       </c>
       <c r="C366">
-        <v>-88.390500000000003</v>
+        <v>-85.510900000000007</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B367">
-        <v>36.488999999999997</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C367">
-        <v>-86.605699999999999</v>
+        <v>-85.446799999999996</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B368">
-        <v>35.676299999999998</v>
+        <v>36.1447</v>
       </c>
       <c r="C368">
-        <v>-83.752899999999997</v>
+        <v>-85.264300000000006</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B369">
-        <v>35.049999999999997</v>
+        <v>36.153599999999997</v>
       </c>
       <c r="C369">
-        <v>-89.188900000000004</v>
+        <v>-85.634799999999998</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B370">
-        <v>36.201999999999998</v>
+        <v>35.491199999999999</v>
       </c>
       <c r="C370">
-        <v>-89.187899999999999</v>
+        <v>-85.012</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B371">
-        <v>35.976700000000001</v>
+        <v>35.688099999999999</v>
       </c>
       <c r="C371">
-        <v>-85.199600000000004</v>
+        <v>-84.862200000000001</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B372">
-        <v>35.327199999999998</v>
+        <v>35.449399999999997</v>
       </c>
       <c r="C372">
-        <v>-89.608000000000004</v>
+        <v>-85.0762</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B373">
-        <v>35.108800000000002</v>
+        <v>35.871299999999998</v>
       </c>
       <c r="C373">
-        <v>-84.985299999999995</v>
+        <v>-84.495900000000006</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B374">
-        <v>35.874299999999998</v>
+        <v>35.930700000000002</v>
       </c>
       <c r="C374">
-        <v>-88.843699999999998</v>
+        <v>-84.560199999999995</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B375">
-        <v>35.060400000000001</v>
+        <v>35.869199999999999</v>
       </c>
       <c r="C375">
-        <v>-88.425700000000006</v>
+        <v>-84.673100000000005</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B376">
-        <v>35.759500000000003</v>
+        <v>35.881300000000003</v>
       </c>
       <c r="C376">
-        <v>-83.388599999999997</v>
+        <v>-84.5715</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B377">
-        <v>35.795200000000001</v>
+        <v>36.494900000000001</v>
       </c>
       <c r="C377">
-        <v>-83.245699999999999</v>
+        <v>-86.871099999999998</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B378">
-        <v>35.604700000000001</v>
+        <v>36.464799999999997</v>
       </c>
       <c r="C378">
-        <v>-88.629199999999997</v>
+        <v>-86.666600000000003</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B379">
-        <v>35.299300000000002</v>
+        <v>36.424300000000002</v>
       </c>
       <c r="C379">
-        <v>-84.747200000000007</v>
+        <v>-86.797499999999999</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B380">
-        <v>35.5336</v>
+        <v>36.414200000000001</v>
       </c>
       <c r="C380">
-        <v>-89.830299999999994</v>
+        <v>-86.965800000000002</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B381">
-        <v>36.3352</v>
+        <v>36.404400000000003</v>
       </c>
       <c r="C381">
-        <v>-89.298299999999998</v>
+        <v>-86.768100000000004</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B382">
-        <v>35.111499999999999</v>
+        <v>36.541200000000003</v>
       </c>
       <c r="C382">
-        <v>-85.596500000000006</v>
+        <v>-86.676500000000004</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B383">
-        <v>35.461300000000001</v>
+        <v>36.593800000000002</v>
       </c>
       <c r="C383">
-        <v>-89.401200000000003</v>
+        <v>-86.701499999999996</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B384">
-        <v>36.330399999999997</v>
+        <v>36.582799999999999</v>
       </c>
       <c r="C384">
-        <v>-82.8292</v>
+        <v>-87.065100000000001</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B385">
-        <v>36.484299999999998</v>
+        <v>36.551200000000001</v>
       </c>
       <c r="C385">
-        <v>-86.308499999999995</v>
+        <v>-87.001000000000005</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B386">
-        <v>36.035699999999999</v>
+        <v>35.848999999999997</v>
       </c>
       <c r="C386">
-        <v>-89.479900000000001</v>
+        <v>-86.412099999999995</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B387">
-        <v>35.158499999999997</v>
+        <v>35.968699999999998</v>
       </c>
       <c r="C387">
-        <v>-89.375399999999999</v>
+        <v>-86.526399999999995</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B388">
-        <v>35.072299999999998</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="C388">
-        <v>-85.054500000000004</v>
+        <v>-86.558599999999998</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B389">
-        <v>35.8553</v>
+        <v>35.719299999999997</v>
       </c>
       <c r="C389">
-        <v>-85.512</v>
+        <v>-86.412899999999993</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B390">
-        <v>36.382800000000003</v>
+        <v>35.7669</v>
       </c>
       <c r="C390">
-        <v>-87.640299999999996</v>
+        <v>-86.521000000000001</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B391">
-        <v>35.060200000000002</v>
+        <v>35.739100000000001</v>
       </c>
       <c r="C391">
-        <v>-86.416399999999996</v>
+        <v>-86.652799999999999</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B392">
-        <v>35.582299999999996</v>
+        <v>35.957299999999996</v>
       </c>
       <c r="C392">
-        <v>-89.752499999999998</v>
+        <v>-86.367900000000006</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B393">
-        <v>35.036000000000001</v>
+        <v>36.517099999999999</v>
       </c>
       <c r="C393">
-        <v>-84.384799999999998</v>
+        <v>-84.510800000000003</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B394">
-        <v>35.0627</v>
+        <v>36.411200000000001</v>
       </c>
       <c r="C394">
-        <v>-86.895700000000005</v>
+        <v>-84.505600000000001</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B395">
-        <v>35.4818</v>
+        <v>36.564</v>
       </c>
       <c r="C395">
-        <v>-88.730599999999995</v>
+        <v>-84.445499999999996</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B396">
-        <v>35.442399999999999</v>
+        <v>36.328499999999998</v>
       </c>
       <c r="C396">
-        <v>-88.291300000000007</v>
+        <v>-84.609099999999998</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B397">
-        <v>35.731999999999999</v>
+        <v>36.422699999999999</v>
       </c>
       <c r="C397">
-        <v>-83.806899999999999</v>
+        <v>-84.542900000000003</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B398">
-        <v>36.058599999999998</v>
+        <v>36.3536</v>
       </c>
       <c r="C398">
-        <v>-85.030500000000004</v>
+        <v>-84.5839</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B399">
-        <v>35.334200000000003</v>
+        <v>35.3675</v>
       </c>
       <c r="C399">
-        <v>-85.8703</v>
+        <v>-85.389899999999997</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B400">
-        <v>36.045900000000003</v>
+        <v>35.200699999999998</v>
       </c>
       <c r="C400">
-        <v>-85.206900000000005</v>
+        <v>-85.368499999999997</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B401">
-        <v>35.9863</v>
+        <v>35.8872</v>
       </c>
       <c r="C401">
-        <v>-88.58</v>
+        <v>-83.567800000000005</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B402">
-        <v>34.995199999999997</v>
+        <v>35.878300000000003</v>
       </c>
       <c r="C402">
-        <v>-84.374899999999997</v>
+        <v>-83.766900000000007</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B403">
-        <v>35.2761</v>
+        <v>35.797699999999999</v>
       </c>
       <c r="C403">
-        <v>-85.536100000000005</v>
+        <v>-83.562299999999993</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -5145,296 +5150,296 @@
         <v>23</v>
       </c>
       <c r="B404">
-        <v>35.898200000000003</v>
+        <v>35.725000000000001</v>
       </c>
       <c r="C404">
-        <v>-83.411900000000003</v>
+        <v>-83.493799999999993</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B405">
-        <v>35.3782</v>
+        <v>35.759500000000003</v>
       </c>
       <c r="C405">
-        <v>-87.005399999999995</v>
+        <v>-83.388599999999997</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B406">
-        <v>36.012500000000003</v>
+        <v>35.898200000000003</v>
       </c>
       <c r="C406">
-        <v>-85.942599999999999</v>
+        <v>-83.411900000000003</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B407">
-        <v>36.551200000000001</v>
+        <v>35.108699999999999</v>
       </c>
       <c r="C407">
-        <v>-87.001000000000005</v>
+        <v>-89.966300000000004</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B408">
-        <v>35.408499999999997</v>
+        <v>35.233699999999999</v>
       </c>
       <c r="C408">
-        <v>-85.963899999999995</v>
+        <v>-89.819500000000005</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B409">
-        <v>36.004600000000003</v>
+        <v>35.046999999999997</v>
       </c>
       <c r="C409">
-        <v>-85.977900000000005</v>
+        <v>-89.698700000000002</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B410">
-        <v>35.776800000000001</v>
+        <v>35.082900000000002</v>
       </c>
       <c r="C410">
-        <v>-88.986099999999993</v>
+        <v>-89.782399999999996</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B411">
-        <v>35.556899999999999</v>
+        <v>35.259399999999999</v>
       </c>
       <c r="C411">
-        <v>-89.784700000000001</v>
+        <v>-89.668000000000006</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B412">
-        <v>36.145099999999999</v>
+        <v>35.258499999999998</v>
       </c>
       <c r="C412">
-        <v>-85.941299999999998</v>
+        <v>-89.730800000000002</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B413">
-        <v>35.019100000000002</v>
+        <v>35.335000000000001</v>
       </c>
       <c r="C413">
-        <v>-88.542699999999996</v>
+        <v>-89.899100000000004</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B414">
-        <v>35.040399999999998</v>
+        <v>36.256599999999999</v>
       </c>
       <c r="C414">
-        <v>-88.271699999999996</v>
+        <v>-85.942999999999998</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B415">
-        <v>36.008200000000002</v>
+        <v>36.241399999999999</v>
       </c>
       <c r="C415">
-        <v>-83.0916</v>
+        <v>-85.957499999999996</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B416">
-        <v>35.158200000000001</v>
+        <v>36.181699999999999</v>
       </c>
       <c r="C416">
-        <v>-87.346400000000003</v>
+        <v>-85.932400000000001</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B417">
-        <v>36.448999999999998</v>
+        <v>36.145099999999999</v>
       </c>
       <c r="C417">
-        <v>-86.533600000000007</v>
+        <v>-85.941299999999998</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B418">
-        <v>36.5974</v>
+        <v>36.4818</v>
       </c>
       <c r="C418">
-        <v>-83.665800000000004</v>
+        <v>-87.843800000000002</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B419">
-        <v>35.951099999999997</v>
+        <v>36.382800000000003</v>
       </c>
       <c r="C419">
-        <v>-86.096900000000005</v>
+        <v>-87.640299999999996</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B420">
-        <v>35.1569</v>
+        <v>36.576700000000002</v>
       </c>
       <c r="C420">
-        <v>-88.430199999999999</v>
+        <v>-87.757900000000006</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B421">
-        <v>36.087600000000002</v>
+        <v>36.522399999999998</v>
       </c>
       <c r="C421">
-        <v>-89.497200000000007</v>
+        <v>-82.545400000000001</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B422">
-        <v>36.409999999999997</v>
+        <v>36.557200000000002</v>
       </c>
       <c r="C422">
-        <v>-85.442099999999996</v>
+        <v>-82.215400000000002</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B423">
-        <v>35.0261</v>
+        <v>36.579300000000003</v>
       </c>
       <c r="C423">
-        <v>-86.717600000000004</v>
+        <v>-82.509600000000006</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B424">
-        <v>36.0976</v>
+        <v>36.533000000000001</v>
       </c>
       <c r="C424">
-        <v>-89.118300000000005</v>
+        <v>-82.328999999999994</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B425">
-        <v>35.368499999999997</v>
+        <v>36.485300000000002</v>
       </c>
       <c r="C425">
-        <v>-89.571799999999996</v>
+        <v>-82.506900000000002</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B426">
-        <v>35.356499999999997</v>
+        <v>36.567900000000002</v>
       </c>
       <c r="C426">
-        <v>-88.9542</v>
+        <v>-82.265500000000003</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B427">
-        <v>36.197000000000003</v>
+        <v>36.4589</v>
       </c>
       <c r="C427">
-        <v>-84.033000000000001</v>
+        <v>-82.276799999999994</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B428">
-        <v>35.377600000000001</v>
+        <v>36.487699999999997</v>
       </c>
       <c r="C428">
-        <v>-88.366</v>
+        <v>-82.591200000000001</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B429">
-        <v>35.114800000000002</v>
+        <v>36.555999999999997</v>
       </c>
       <c r="C429">
-        <v>-88.258300000000006</v>
+        <v>-82.464200000000005</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B430">
-        <v>35.071800000000003</v>
+        <v>36.3063</v>
       </c>
       <c r="C430">
-        <v>-88.614699999999999</v>
+        <v>-86.599699999999999</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -5442,120 +5447,120 @@
         <v>15</v>
       </c>
       <c r="B431">
-        <v>36.620800000000003</v>
+        <v>36.3782</v>
       </c>
       <c r="C431">
-        <v>-86.342500000000001</v>
+        <v>-86.469800000000006</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B432">
-        <v>36.102800000000002</v>
+        <v>36.332999999999998</v>
       </c>
       <c r="C432">
-        <v>-84.450400000000002</v>
+        <v>-86.702600000000004</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B433">
-        <v>36.019799999999996</v>
+        <v>36.592100000000002</v>
       </c>
       <c r="C433">
-        <v>-86.120599999999996</v>
+        <v>-86.523899999999998</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B434">
-        <v>35.228499999999997</v>
+        <v>36.396900000000002</v>
       </c>
       <c r="C434">
-        <v>-88.829300000000003</v>
+        <v>-86.711100000000002</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B435">
-        <v>35.725099999999998</v>
+        <v>36.377499999999998</v>
       </c>
       <c r="C435">
-        <v>-85.919700000000006</v>
+        <v>-86.616799999999998</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B436">
-        <v>36.054099999999998</v>
+        <v>36.561999999999998</v>
       </c>
       <c r="C436">
-        <v>-86.238200000000006</v>
+        <v>-86.245999999999995</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B437">
-        <v>35.935899999999997</v>
+        <v>36.401200000000003</v>
       </c>
       <c r="C437">
-        <v>-85.364400000000003</v>
+        <v>-86.306700000000006</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B438">
-        <v>35.054699999999997</v>
+        <v>36.488999999999997</v>
       </c>
       <c r="C438">
-        <v>-88.801900000000003</v>
+        <v>-86.605699999999999</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B439">
-        <v>36.356000000000002</v>
+        <v>36.484299999999998</v>
       </c>
       <c r="C439">
-        <v>-89.049499999999995</v>
+        <v>-86.308499999999995</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B440">
-        <v>35.0488</v>
+        <v>36.448999999999998</v>
       </c>
       <c r="C440">
-        <v>-89.088399999999993</v>
+        <v>-86.533600000000007</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B441">
-        <v>35.455599999999997</v>
+        <v>36.620800000000003</v>
       </c>
       <c r="C441">
-        <v>-88.863600000000005</v>
+        <v>-86.342500000000001</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -5571,35 +5576,35 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B443">
-        <v>35.134900000000002</v>
+        <v>36.5139</v>
       </c>
       <c r="C443">
-        <v>-87.537700000000001</v>
+        <v>-86.562899999999999</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B444">
-        <v>35.313899999999997</v>
+        <v>36.513300000000001</v>
       </c>
       <c r="C444">
-        <v>-88.355800000000002</v>
+        <v>-86.285300000000007</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B445">
-        <v>35.0227</v>
+        <v>36.634399999999999</v>
       </c>
       <c r="C445">
-        <v>-87.585499999999996</v>
+        <v>-86.54</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -5607,629 +5612,632 @@
         <v>38</v>
       </c>
       <c r="B446">
-        <v>35.519500000000001</v>
+        <v>35.423900000000003</v>
       </c>
       <c r="C446">
-        <v>-89.882499999999993</v>
+        <v>-89.786100000000005</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B447">
-        <v>36.5139</v>
+        <v>35.566000000000003</v>
       </c>
       <c r="C447">
-        <v>-86.562899999999999</v>
+        <v>-89.648200000000003</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B448">
-        <v>35.1235</v>
+        <v>35.443399999999997</v>
       </c>
       <c r="C448">
-        <v>-84.716700000000003</v>
+        <v>-89.814700000000002</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B449">
-        <v>36.177700000000002</v>
+        <v>35.481299999999997</v>
       </c>
       <c r="C449">
-        <v>-84.183700000000002</v>
+        <v>-89.735299999999995</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B450">
-        <v>35.154299999999999</v>
+        <v>35.412799999999997</v>
       </c>
       <c r="C450">
-        <v>-84.319100000000006</v>
+        <v>-89.541200000000003</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B451">
-        <v>36.328499999999998</v>
+        <v>35.5336</v>
       </c>
       <c r="C451">
-        <v>-84.609099999999998</v>
+        <v>-89.830299999999994</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B452">
-        <v>36.382300000000001</v>
+        <v>35.582299999999996</v>
       </c>
       <c r="C452">
-        <v>-89.353300000000004</v>
+        <v>-89.752499999999998</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B453">
-        <v>35.9895</v>
+        <v>35.556899999999999</v>
       </c>
       <c r="C453">
-        <v>-84.557299999999998</v>
+        <v>-89.784700000000001</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B454">
-        <v>35.020899999999997</v>
+        <v>35.519500000000001</v>
       </c>
       <c r="C454">
-        <v>-88.642600000000002</v>
+        <v>-89.882499999999993</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B455">
-        <v>35.043700000000001</v>
+        <v>36.392099999999999</v>
       </c>
       <c r="C455">
-        <v>-86.753200000000007</v>
+        <v>-86.156800000000004</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B456">
-        <v>35.021900000000002</v>
+        <v>36.145600000000002</v>
       </c>
       <c r="C456">
-        <v>-86.998999999999995</v>
+        <v>-82.411500000000004</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B457">
-        <v>35.391100000000002</v>
+        <v>36.221699999999998</v>
       </c>
       <c r="C457">
-        <v>-88.430300000000003</v>
+        <v>-82.3292</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B458">
-        <v>36.576700000000002</v>
+        <v>36.122300000000003</v>
       </c>
       <c r="C458">
-        <v>-87.757900000000006</v>
+        <v>-82.420299999999997</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B459">
-        <v>36.494900000000001</v>
+        <v>36.247</v>
       </c>
       <c r="C459">
-        <v>-88.716300000000004</v>
+        <v>-83.805700000000002</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B460">
-        <v>35.263199999999998</v>
+        <v>36.180700000000002</v>
       </c>
       <c r="C460">
-        <v>-84.288200000000003</v>
+        <v>-83.793300000000002</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B461">
-        <v>36.513300000000001</v>
+        <v>36.209600000000002</v>
       </c>
       <c r="C461">
-        <v>-86.285300000000007</v>
+        <v>-83.748500000000007</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B462">
-        <v>36.356200000000001</v>
+        <v>35.7393</v>
       </c>
       <c r="C462">
-        <v>-82.034700000000001</v>
+        <v>-85.456000000000003</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B463">
-        <v>36.634399999999999</v>
+        <v>35.686399999999999</v>
       </c>
       <c r="C463">
-        <v>-86.54</v>
+        <v>-85.781199999999998</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B464">
-        <v>35.776600000000002</v>
+        <v>35.604799999999997</v>
       </c>
       <c r="C464">
-        <v>-88.356099999999998</v>
+        <v>-85.911699999999996</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B465">
-        <v>36.4084</v>
+        <v>35.725099999999998</v>
       </c>
       <c r="C465">
-        <v>-88.584199999999996</v>
+        <v>-85.919700000000006</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B466">
-        <v>35.155000000000001</v>
+        <v>35.538699999999999</v>
       </c>
       <c r="C466">
-        <v>-89.126000000000005</v>
+        <v>-85.860399999999998</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B467">
-        <v>35.601700000000001</v>
+        <v>36.340600000000002</v>
       </c>
       <c r="C467">
-        <v>-88.570300000000003</v>
+        <v>-82.380600000000001</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B468">
-        <v>36.161999999999999</v>
+        <v>36.295900000000003</v>
       </c>
       <c r="C468">
-        <v>-89.438999999999993</v>
+        <v>-82.476600000000005</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B469">
-        <v>36.2913</v>
+        <v>36.422199999999997</v>
       </c>
       <c r="C469">
-        <v>-87.465599999999995</v>
+        <v>-82.429299999999998</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B470">
-        <v>36.005499999999998</v>
+        <v>36.442999999999998</v>
       </c>
       <c r="C470">
-        <v>-86.2012</v>
+        <v>-82.462100000000007</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B471">
-        <v>35.538699999999999</v>
+        <v>36.421900000000001</v>
       </c>
       <c r="C471">
-        <v>-85.860399999999998</v>
+        <v>-82.476699999999994</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B472">
-        <v>36.0687</v>
+        <v>36.4161</v>
       </c>
       <c r="C472">
-        <v>-88.008099999999999</v>
+        <v>-82.624200000000002</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B473">
-        <v>35.957299999999996</v>
+        <v>36.176699999999997</v>
       </c>
       <c r="C473">
-        <v>-86.367900000000006</v>
+        <v>-82.449399999999997</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B474">
-        <v>36.433999999999997</v>
+        <v>36.253399999999999</v>
       </c>
       <c r="C474">
-        <v>-88.202699999999993</v>
+        <v>-82.547799999999995</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B475">
-        <v>36.422699999999999</v>
+        <v>35.379199999999997</v>
       </c>
       <c r="C475">
-        <v>-84.542900000000003</v>
+        <v>-87.992699999999999</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B476">
-        <v>35.899700000000003</v>
+        <v>35.323500000000003</v>
       </c>
       <c r="C476">
-        <v>-87.3536</v>
+        <v>-87.759299999999996</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B477">
-        <v>35.005200000000002</v>
+        <v>35.174599999999998</v>
       </c>
       <c r="C477">
-        <v>-84.727599999999995</v>
+        <v>-87.744200000000006</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B478">
-        <v>35.110399999999998</v>
+        <v>36.338500000000003</v>
       </c>
       <c r="C478">
-        <v>-88.363799999999998</v>
+        <v>-88.851299999999995</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B479">
-        <v>36.3536</v>
+        <v>36.279000000000003</v>
       </c>
       <c r="C479">
-        <v>-84.5839</v>
+        <v>-88.694000000000003</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B480">
-        <v>35.452300000000001</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="C480">
-        <v>-86.258200000000002</v>
+        <v>-88.803600000000003</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B481">
-        <v>36.206600000000002</v>
+        <v>36.217399999999998</v>
       </c>
       <c r="C481">
-        <v>-86.167599999999993</v>
+        <v>-88.610699999999994</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B482">
-        <v>36.160400000000003</v>
+        <v>36.234900000000003</v>
       </c>
       <c r="C482">
-        <v>-89.494</v>
+        <v>-88.825199999999995</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B483">
-        <v>35.115900000000003</v>
+        <v>36.494900000000001</v>
       </c>
       <c r="C483">
-        <v>-86.803600000000003</v>
+        <v>-88.716300000000004</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B484">
-        <v>35.128100000000003</v>
+        <v>36.4084</v>
       </c>
       <c r="C484">
-        <v>-86.188100000000006</v>
+        <v>-88.584199999999996</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B485">
-        <v>35.194299999999998</v>
+        <v>35.934699999999999</v>
       </c>
       <c r="C485">
-        <v>-86.856999999999999</v>
+        <v>-85.4726</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B486">
-        <v>35.011299999999999</v>
+        <v>35.8553</v>
       </c>
       <c r="C486">
-        <v>-88.802499999999995</v>
+        <v>-85.512</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B487">
-        <v>35.8508</v>
+        <v>35.935899999999997</v>
       </c>
       <c r="C487">
-        <v>-88.652699999999996</v>
+        <v>-85.364400000000003</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B488">
-        <v>35.342399999999998</v>
+        <v>35.92</v>
       </c>
       <c r="C488">
-        <v>-88.809799999999996</v>
+        <v>-86.851600000000005</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B489">
-        <v>35.593499999999999</v>
+        <v>35.991799999999998</v>
       </c>
       <c r="C489">
-        <v>-88.536100000000005</v>
+        <v>-86.775800000000004</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B490">
-        <v>35.843800000000002</v>
+        <v>35.9572</v>
       </c>
       <c r="C490">
-        <v>-88.337199999999996</v>
+        <v>-86.671899999999994</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B491">
-        <v>35.474499999999999</v>
+        <v>35.981499999999997</v>
       </c>
       <c r="C491">
-        <v>-89.039400000000001</v>
+        <v>-87.129099999999994</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B492">
-        <v>36.378300000000003</v>
+        <v>35.810600000000001</v>
       </c>
       <c r="C492">
-        <v>-88.4786</v>
+        <v>-86.900300000000001</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B493">
-        <v>35.014699999999998</v>
+        <v>36.204000000000001</v>
       </c>
       <c r="C493">
-        <v>-85.8048</v>
+        <v>-86.348100000000002</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B494">
-        <v>35.047600000000003</v>
+        <v>36.198999999999998</v>
       </c>
       <c r="C494">
-        <v>-89.240899999999996</v>
+        <v>-86.511499999999998</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B495">
-        <v>34.994599999999998</v>
+        <v>36.234900000000003</v>
       </c>
       <c r="C495">
-        <v>-85.486800000000002</v>
+        <v>-86.573300000000003</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B496">
-        <v>35.406700000000001</v>
+        <v>36.115699999999997</v>
       </c>
       <c r="C496">
-        <v>-89.296999999999997</v>
+        <v>-86.514499999999998</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B497">
-        <v>35.872</v>
+        <v>36.1158</v>
       </c>
       <c r="C497">
-        <v>-88.144900000000007</v>
+        <v>-86.431600000000003</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B498">
-        <v>36.370699999999999</v>
+        <v>36.100700000000003</v>
       </c>
       <c r="C498">
-        <v>-88.361199999999997</v>
+        <v>-86.139399999999995</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B499">
-        <v>35.081600000000002</v>
+        <v>36.019799999999996</v>
       </c>
       <c r="C499">
-        <v>-88.326700000000002</v>
+        <v>-86.120599999999996</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B500">
-        <v>36.330100000000002</v>
+        <v>36.054099999999998</v>
       </c>
       <c r="C500">
-        <v>-89.468599999999995</v>
+        <v>-86.238200000000006</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B501">
-        <v>35.469099999999997</v>
+        <v>36.005499999999998</v>
       </c>
       <c r="C501">
-        <v>-88.514600000000002</v>
+        <v>-86.2012</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B502">
-        <v>35.0749</v>
+        <v>36.206600000000002</v>
       </c>
       <c r="C502">
-        <v>-85.925899999999999</v>
+        <v>-86.167599999999993</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C502">
+    <sortCondition ref="A1:A502"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>